--- a/lista.xlsx
+++ b/lista.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALFREDO\catalogo_tps_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEC24270-8B86-4AF6-BA9E-B4E0FDA64B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A6217A-E001-4E09-86F4-5B55C1B5526D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="780" windowWidth="20910" windowHeight="11490" xr2:uid="{A29AB010-4F27-4AA6-B665-73715C6B7D29}"/>
+    <workbookView xWindow="2100" yWindow="1170" windowWidth="20910" windowHeight="11490" xr2:uid="{A29AB010-4F27-4AA6-B665-73715C6B7D29}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="232">
   <si>
     <t>No</t>
   </si>
@@ -175,6 +175,561 @@
   </si>
   <si>
     <t>180°</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>link bits</t>
+  </si>
+  <si>
+    <t>soporte</t>
+  </si>
+  <si>
+    <t>b1442n07</t>
+  </si>
+  <si>
+    <t>14"</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>42"</t>
+  </si>
+  <si>
+    <t>18kg</t>
+  </si>
+  <si>
+    <t>Smart tv</t>
+  </si>
+  <si>
+    <t>a2652n06</t>
+  </si>
+  <si>
+    <t>26"</t>
+  </si>
+  <si>
+    <t>55"</t>
+  </si>
+  <si>
+    <t>50kg</t>
+  </si>
+  <si>
+    <t>DH-XVR1B04</t>
+  </si>
+  <si>
+    <t>DAHUA</t>
+  </si>
+  <si>
+    <t>4CANALES</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>3.5"HDD EXTERNAL CASE</t>
+  </si>
+  <si>
+    <t>VIMI</t>
+  </si>
+  <si>
+    <t>SATA</t>
+  </si>
+  <si>
+    <t>USB 2.0</t>
+  </si>
+  <si>
+    <t>3.5"</t>
+  </si>
+  <si>
+    <t>DURO</t>
+  </si>
+  <si>
+    <t>SIRENA PARA EXTERIORES</t>
+  </si>
+  <si>
+    <t>SFIRE</t>
+  </si>
+  <si>
+    <t>SIRENA</t>
+  </si>
+  <si>
+    <t>120dB</t>
+  </si>
+  <si>
+    <t>lueces</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>robot solar</t>
+  </si>
+  <si>
+    <t>imori kits</t>
+  </si>
+  <si>
+    <t>kit educativo</t>
+  </si>
+  <si>
+    <t>3 en 1</t>
+  </si>
+  <si>
+    <t>facil de instalar</t>
+  </si>
+  <si>
+    <t>para el aprendizage</t>
+  </si>
+  <si>
+    <t>complet</t>
+  </si>
+  <si>
+    <t>regulador de voltaje</t>
+  </si>
+  <si>
+    <t>8 contactos</t>
+  </si>
+  <si>
+    <t>v.e 100-140vca v.s 120vca</t>
+  </si>
+  <si>
+    <t>100mA de consumo</t>
+  </si>
+  <si>
+    <t>Regulador de voltaje erv-5-000</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>fuente de poder</t>
+  </si>
+  <si>
+    <t>profecional</t>
+  </si>
+  <si>
+    <t>power supply</t>
+  </si>
+  <si>
+    <t>3 salidas</t>
+  </si>
+  <si>
+    <t>110/220 v</t>
+  </si>
+  <si>
+    <t>12v 30a</t>
+  </si>
+  <si>
+    <t>sensor de reversa con display</t>
+  </si>
+  <si>
+    <t>mitzu</t>
+  </si>
+  <si>
+    <t>sma-1001</t>
+  </si>
+  <si>
+    <t>30-200 mts</t>
+  </si>
+  <si>
+    <t>contra agua</t>
+  </si>
+  <si>
+    <t>cuatro sensores</t>
+  </si>
+  <si>
+    <t>detactor de monedas</t>
+  </si>
+  <si>
+    <t>s.r</t>
+  </si>
+  <si>
+    <t>sr-1213</t>
+  </si>
+  <si>
+    <t>Todo tipo de monedas</t>
+  </si>
+  <si>
+    <t>interruptoe de 3 vias</t>
+  </si>
+  <si>
+    <t>conexioin directa con counter</t>
+  </si>
+  <si>
+    <t>Soporte para tablet universal</t>
+  </si>
+  <si>
+    <t>distintos tamños</t>
+  </si>
+  <si>
+    <t>resistente</t>
+  </si>
+  <si>
+    <t>ajustable</t>
+  </si>
+  <si>
+    <t>Teclado bluetootj para ipad</t>
+  </si>
+  <si>
+    <t>Regulador de voltaje con suspensor de picos</t>
+  </si>
+  <si>
+    <t>xp-1300</t>
+  </si>
+  <si>
+    <t>v.e 100-140vca</t>
+  </si>
+  <si>
+    <t>vs 120</t>
+  </si>
+  <si>
+    <t>p. 1300va /650w</t>
+  </si>
+  <si>
+    <t>lampara minero</t>
+  </si>
+  <si>
+    <t>yj-888cs</t>
+  </si>
+  <si>
+    <t>yajian</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>2 modos</t>
+  </si>
+  <si>
+    <t>recargable</t>
+  </si>
+  <si>
+    <t>convertidor de vga a video++</t>
+  </si>
+  <si>
+    <t>xtv</t>
+  </si>
+  <si>
+    <t>wl23</t>
+  </si>
+  <si>
+    <t>vga a svideo</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>vga</t>
+  </si>
+  <si>
+    <t>convertidor a señal digital</t>
+  </si>
+  <si>
+    <t>woika</t>
+  </si>
+  <si>
+    <t>conv0002</t>
+  </si>
+  <si>
+    <t>antena</t>
+  </si>
+  <si>
+    <t>hdmi</t>
+  </si>
+  <si>
+    <t>canal 3</t>
+  </si>
+  <si>
+    <t>canal4</t>
+  </si>
+  <si>
+    <t>soporta usb</t>
+  </si>
+  <si>
+    <t>juego de luces led</t>
+  </si>
+  <si>
+    <t>led light</t>
+  </si>
+  <si>
+    <t>usa baterias</t>
+  </si>
+  <si>
+    <t>inalambrico</t>
+  </si>
+  <si>
+    <t>teclado inalambrico</t>
+  </si>
+  <si>
+    <t>tc-05</t>
+  </si>
+  <si>
+    <t>bluethooth</t>
+  </si>
+  <si>
+    <t>game&amp;mx</t>
+  </si>
+  <si>
+    <t>j15</t>
+  </si>
+  <si>
+    <t>antena wireless</t>
+  </si>
+  <si>
+    <t>gamepad inalambrico</t>
+  </si>
+  <si>
+    <t>on tenck</t>
+  </si>
+  <si>
+    <t>reacrgable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soporte para telefono </t>
+  </si>
+  <si>
+    <t>smartwatch para niños</t>
+  </si>
+  <si>
+    <t>nage</t>
+  </si>
+  <si>
+    <t>kids-1</t>
+  </si>
+  <si>
+    <t>sim-card</t>
+  </si>
+  <si>
+    <t>gps integrado</t>
+  </si>
+  <si>
+    <t>tira led inalambrica</t>
+  </si>
+  <si>
+    <t>bateria boton</t>
+  </si>
+  <si>
+    <t>baterias</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>adaptador para auto</t>
+  </si>
+  <si>
+    <t>bo-1507</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>5v - 1a</t>
+  </si>
+  <si>
+    <t>verde, azul,rosa,morado</t>
+  </si>
+  <si>
+    <t>Audifonos</t>
+  </si>
+  <si>
+    <t>eo-hs3303we</t>
+  </si>
+  <si>
+    <t>pvc</t>
+  </si>
+  <si>
+    <t>buen audio</t>
+  </si>
+  <si>
+    <t>blancos</t>
+  </si>
+  <si>
+    <t>mini lampara</t>
+  </si>
+  <si>
+    <t>aluminio</t>
+  </si>
+  <si>
+    <t>alto luminaje</t>
+  </si>
+  <si>
+    <t>convertidor vga - hdmi</t>
+  </si>
+  <si>
+    <t>con.16</t>
+  </si>
+  <si>
+    <t>entrada vga</t>
+  </si>
+  <si>
+    <t>salida hdmi</t>
+  </si>
+  <si>
+    <t>clidad 1080p</t>
+  </si>
+  <si>
+    <t>eliminador ds</t>
+  </si>
+  <si>
+    <t>xvc-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nintendo ds</t>
+  </si>
+  <si>
+    <t>4.6v -900ma</t>
+  </si>
+  <si>
+    <t>compatible con la mayoria</t>
+  </si>
+  <si>
+    <t>Juego de cargador iphone</t>
+  </si>
+  <si>
+    <t>sumex</t>
+  </si>
+  <si>
+    <t>tz729</t>
+  </si>
+  <si>
+    <t>iphone ligthing</t>
+  </si>
+  <si>
+    <t>5v-1.5a</t>
+  </si>
+  <si>
+    <t>sintonizador de radio bt</t>
+  </si>
+  <si>
+    <t>rmbt</t>
+  </si>
+  <si>
+    <t>litoy</t>
+  </si>
+  <si>
+    <t>carga tu telefono</t>
+  </si>
+  <si>
+    <t>sincroniza la radio x bt</t>
+  </si>
+  <si>
+    <t>Audifonos beats</t>
+  </si>
+  <si>
+    <t>beats</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>el mejor audio</t>
+  </si>
+  <si>
+    <t>carga en 2hrs</t>
+  </si>
+  <si>
+    <t>tactil</t>
+  </si>
+  <si>
+    <t>cable magnetico 360</t>
+  </si>
+  <si>
+    <t>save time2000</t>
+  </si>
+  <si>
+    <t>x-cable</t>
+  </si>
+  <si>
+    <t>tipo-c</t>
+  </si>
+  <si>
+    <t>tipo-v8</t>
+  </si>
+  <si>
+    <t>tipo-ighting</t>
+  </si>
+  <si>
+    <t>metalixco</t>
+  </si>
+  <si>
+    <t>duradero</t>
+  </si>
+  <si>
+    <t>modulo de carga inalambrica</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base de carga </t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>the enterprise</t>
+  </si>
+  <si>
+    <t>td &lt;8mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external case </t>
+  </si>
+  <si>
+    <t>case2.5s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5" </t>
+  </si>
+  <si>
+    <t>sata</t>
+  </si>
+  <si>
+    <t>cargador ligthing</t>
+  </si>
+  <si>
+    <t>5w</t>
+  </si>
+  <si>
+    <t>ligting</t>
+  </si>
+  <si>
+    <t>1.5m</t>
+  </si>
+  <si>
+    <t>jack 3.5</t>
+  </si>
+  <si>
+    <t>manos libres luminoso</t>
+  </si>
+  <si>
+    <t>luminoso</t>
+  </si>
+  <si>
+    <t>3dB</t>
+  </si>
+  <si>
+    <t>consola retro</t>
+  </si>
+  <si>
+    <t>game box power</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>4accesorios</t>
+  </si>
+  <si>
+    <t>pantalla led</t>
+  </si>
+  <si>
+    <t>conectala a TV</t>
   </si>
 </sst>
 </file>
@@ -222,24 +777,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -249,6 +792,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2992D2E-581A-45DA-856D-A63DC842200E}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +1137,11 @@
     <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,664 +1178,2988 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="8"/>
+      <c r="K7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="2" t="s">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="4" t="s">
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
+      <c r="B12" s="8">
         <v>4</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="7" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>5</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="2" t="s">
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="4" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>6</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
+      <c r="B21" s="8">
         <v>2</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7" t="s">
+      <c r="J22" s="8"/>
+      <c r="K22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>3</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="2" t="s">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="4" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+      <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="5" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="7" t="s">
+      <c r="H28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="2" t="s">
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="4" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="6"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>32</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>33</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>34</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>35</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="2"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>36</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I48" s="2"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>37</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="2"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="6">
+        <v>37</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="6">
+        <v>38</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" s="6"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="6">
+        <v>39</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" s="10"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="6">
+        <v>40</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="6">
+        <v>41</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="10"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
+        <v>42</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J70" s="6"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="6">
+        <v>43</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J73" s="6"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="6">
+        <v>44</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I75" s="2"/>
+      <c r="J75" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="6">
+        <v>45</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I79" s="4"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J80" s="6"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="6">
+        <v>46</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="10"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="11">
+        <v>10615</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
+        <v>47</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="10"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J85" s="6"/>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <v>48</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H87" s="10"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88" s="6"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>49</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H90" s="10"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="11">
+        <v>20030</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <v>50</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H93" s="10"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <v>51</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J97" s="6"/>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>52</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="10"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J100" s="6"/>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <v>53</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="10"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>54</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="10"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="11">
+        <v>10831</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J106" s="6"/>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <v>55</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" s="10"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J109" s="6"/>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <v>56</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="10"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>57</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H114" s="10"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="6">
+        <v>58</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J118" s="6"/>
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
+        <v>59</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H120" s="10"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="6">
+        <v>60</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J124" s="6"/>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="6">
+        <v>61</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="10"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J127" s="6"/>
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="6">
+        <v>62</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H129" s="10"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J130" s="6"/>
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="6">
+        <v>63</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H132" s="10"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J133" s="6"/>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="6">
+        <v>64</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J136" s="6"/>
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="6">
+        <v>65</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H138" s="10"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J139" s="6"/>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="6">
+        <v>66</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H141" s="10"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
+  <mergeCells count="327">
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="G142:G143"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="D141:D143"/>
+    <mergeCell ref="E141:E143"/>
+    <mergeCell ref="F141:F143"/>
+    <mergeCell ref="J135:J137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="B138:B140"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="D138:D140"/>
+    <mergeCell ref="E138:E140"/>
+    <mergeCell ref="F138:F140"/>
+    <mergeCell ref="J138:J140"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="D135:D137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="C132:C134"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="J132:J134"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="E129:E131"/>
+    <mergeCell ref="F129:F131"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:D128"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="J126:J128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="D123:D125"/>
+    <mergeCell ref="E123:E125"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="J117:J119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="D120:D122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="J120:J122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="J99:J101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="F99:F101"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="E87:E89"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="J75:J77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="J69:J71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="J72:J74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="F69:F71"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="J51:J53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="B15:B17"/>
@@ -1289,26 +4175,39 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
